--- a/medicine/Handicap/Au-dessus_des_nuages_(téléfilm)/Au-dessus_des_nuages_(téléfilm).xlsx
+++ b/medicine/Handicap/Au-dessus_des_nuages_(téléfilm)/Au-dessus_des_nuages_(téléfilm).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Au-dessus_des_nuages_(t%C3%A9l%C3%A9film)</t>
+          <t>Au-dessus_des_nuages_(téléfilm)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au-dessus des nuages est un téléfilm français réalisé par Jérôme Cornuau, diffusée en 2020 en France sur TF1[1].
-Il est adapté du livre autobiographique du même nom de Dorine Bourneton, sorti le 19 février 2015 aux éditions Robert Laffont[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au-dessus des nuages est un téléfilm français réalisé par Jérôme Cornuau, diffusée en 2020 en France sur TF1.
+Il est adapté du livre autobiographique du même nom de Dorine Bourneton, sorti le 19 février 2015 aux éditions Robert Laffont.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Au-dessus_des_nuages_(t%C3%A9l%C3%A9film)</t>
+          <t>Au-dessus_des_nuages_(téléfilm)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce téléfilm raconte le combat de Dorine Bourneton, première femme handicapée au monde pilote de voltige aérienne. Son ambition est née à l'âge de seize ans après un crash dans lequel elle était passagère et qui lui a causé une paraplégie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Au-dessus_des_nuages_(t%C3%A9l%C3%A9film)</t>
+          <t>Au-dessus_des_nuages_(téléfilm)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données Allociné.
 Titre : Au-dessus des nuages
@@ -557,7 +573,7 @@
 Genre : Biographique
 Durée : 90 minutes
 Dates de première diffusion :
- France : 9 novembre 2020 sur TF1[3]
+ France : 9 novembre 2020 sur TF1
 Classification : Tout public</t>
         </is>
       </c>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Au-dessus_des_nuages_(t%C3%A9l%C3%A9film)</t>
+          <t>Au-dessus_des_nuages_(téléfilm)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alice Taglioni : Dorine Bourneton
@@ -621,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Au-dessus_des_nuages_(t%C3%A9l%C3%A9film)</t>
+          <t>Au-dessus_des_nuages_(téléfilm)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,9 +657,11 @@
           <t>Audiences</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Médiamétrie, le téléfilm en deux parties a rassemblé en moyenne 3,09 millions de téléspectateurs dont 13,5 % du public de quatre ans et plus[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Médiamétrie, le téléfilm en deux parties a rassemblé en moyenne 3,09 millions de téléspectateurs dont 13,5 % du public de quatre ans et plus.
 </t>
         </is>
       </c>
